--- a/SBRMIC008_MMID_App/Parameters.xlsx
+++ b/SBRMIC008_MMID_App/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.University\5th Year\STA5066Z\Project\MMID_Project\SBRMIC008_MMID_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412E0569-0FBE-4C6D-944F-F2E06238A750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E747357-F7E6-40F8-BD1F-30E8525F190F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Humans" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -59,316 +59,355 @@
     <t>mu</t>
   </si>
   <si>
-    <t>pA_v</t>
-  </si>
-  <si>
-    <t>sigma_v</t>
-  </si>
-  <si>
-    <t>pFN_M</t>
-  </si>
-  <si>
-    <t>pFN_RDT</t>
-  </si>
-  <si>
-    <t>pTP_M</t>
-  </si>
-  <si>
-    <t>pRDT</t>
-  </si>
-  <si>
-    <t>delta_v</t>
-  </si>
-  <si>
-    <t>tau</t>
-  </si>
-  <si>
-    <t>smallOmega</t>
-  </si>
-  <si>
-    <t>pCT</t>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>average Birth Rate</t>
+  </si>
+  <si>
+    <t>Natural Death Rate</t>
+  </si>
+  <si>
+    <t>Afar</t>
+  </si>
+  <si>
+    <t>Amhara</t>
+  </si>
+  <si>
+    <t>BenishangulGumuz</t>
+  </si>
+  <si>
+    <t>CentralEthiopia</t>
+  </si>
+  <si>
+    <t>Gambela</t>
+  </si>
+  <si>
+    <t>Harari</t>
+  </si>
+  <si>
+    <t>Oromia</t>
+  </si>
+  <si>
+    <t>Siama</t>
+  </si>
+  <si>
+    <t>Somali</t>
+  </si>
+  <si>
+    <t>SouthEthiopia</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
+    <t>Tigray</t>
+  </si>
+  <si>
+    <t>mu_mos</t>
+  </si>
+  <si>
+    <t>b_mos</t>
+  </si>
+  <si>
+    <t>YearlyValue</t>
+  </si>
+  <si>
+    <t>beta_Spray</t>
+  </si>
+  <si>
+    <t>Bite rate of mosquitos</t>
+  </si>
+  <si>
+    <t>beta_Mos</t>
+  </si>
+  <si>
+    <t>beta_Temp</t>
+  </si>
+  <si>
+    <t>beta_Rain</t>
+  </si>
+  <si>
+    <t>Reduction in birth rate of mosquitos due to spraying</t>
+  </si>
+  <si>
+    <t>Reduction in birth rate of mosquitos due to ITN</t>
+  </si>
+  <si>
+    <t>Change in birthrate of mosquitos due to rainfall</t>
+  </si>
+  <si>
+    <t>Change in birthrate of mosquitos due to temperature</t>
+  </si>
+  <si>
+    <t>beta_BN_b</t>
+  </si>
+  <si>
+    <t>avgTemp</t>
+  </si>
+  <si>
+    <t>avgRain</t>
+  </si>
+  <si>
+    <t>Birth Rate</t>
+  </si>
+  <si>
+    <t>Loss of initial immunity</t>
+  </si>
+  <si>
+    <t>pV1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of children who get the vaccine </t>
+  </si>
+  <si>
+    <t>delta1</t>
+  </si>
+  <si>
+    <t>delta2</t>
+  </si>
+  <si>
+    <t>delta3</t>
+  </si>
+  <si>
+    <t>delta4</t>
+  </si>
+  <si>
+    <t>Rate of moving out of V1</t>
+  </si>
+  <si>
+    <t>Rate of moving out of V3</t>
+  </si>
+  <si>
+    <t>Rate of moving out of V4</t>
+  </si>
+  <si>
+    <t>delta5</t>
+  </si>
+  <si>
+    <t>Rate of moving out of V5</t>
+  </si>
+  <si>
+    <t>Rate of moving out of V2</t>
+  </si>
+  <si>
+    <t>pDelta1</t>
+  </si>
+  <si>
+    <t>Proportion of children who go from V1 to V2</t>
+  </si>
+  <si>
+    <t>pDelta2</t>
+  </si>
+  <si>
+    <t>pDelta3</t>
+  </si>
+  <si>
+    <t>Proportion of children who go from V2 to V3</t>
+  </si>
+  <si>
+    <t>proportion of children who go from V3 to V4</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>pA</t>
+  </si>
+  <si>
+    <t>pU</t>
+  </si>
+  <si>
+    <t>pC</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>Rate of natural recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of infected who are asymptomatic </t>
+  </si>
+  <si>
+    <t>Proportion of infected who have uncomplicated infections</t>
+  </si>
+  <si>
+    <t>Proportion of infecedt who have complicated infetions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of going from exposed to infected </t>
+  </si>
+  <si>
+    <t>Rate of getting exposed to falciparum</t>
+  </si>
+  <si>
+    <t>rU</t>
+  </si>
+  <si>
+    <t>rC</t>
+  </si>
+  <si>
+    <t>pTU</t>
+  </si>
+  <si>
+    <t>pTC</t>
+  </si>
+  <si>
+    <t>Proportion of those with complicated infection getting treated</t>
+  </si>
+  <si>
+    <t>Proportion of those uncomplicated infection getting treated</t>
+  </si>
+  <si>
+    <t>Rate of treatment for uncomplicated treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of treatment for complicated treatment </t>
+  </si>
+  <si>
+    <t>pNotTU</t>
+  </si>
+  <si>
+    <t>pNotTC</t>
+  </si>
+  <si>
+    <t>Proportion of those not completing treatment for complicated infection</t>
+  </si>
+  <si>
+    <t>Proprtion of those not completing treatment for uncomplicated infection</t>
+  </si>
+  <si>
+    <t>Rate of losing temporary immunity after infection</t>
+  </si>
+  <si>
+    <t>Rate of death from natural causes</t>
+  </si>
+  <si>
+    <t>mu_A</t>
+  </si>
+  <si>
+    <t>mu_U</t>
+  </si>
+  <si>
+    <t>mu_C</t>
+  </si>
+  <si>
+    <t>Rate of death from asymptomatic infection</t>
+  </si>
+  <si>
+    <t>Rate of death from uncomplicated infection</t>
+  </si>
+  <si>
+    <t>Rate of death from complicated infection</t>
+  </si>
+  <si>
+    <t>gamma_mos</t>
+  </si>
+  <si>
+    <t>Rate of development of falciparum in mosquito</t>
+  </si>
+  <si>
+    <t>pBN</t>
+  </si>
+  <si>
+    <t>Rate of mosquitos biting humans</t>
+  </si>
+  <si>
+    <t>Reduction in Bite rate due to bednets</t>
+  </si>
+  <si>
+    <t>Proportion of individuals with bednets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inreased infectivity for children </t>
+  </si>
+  <si>
+    <t>Increased infectivity for pregnant women</t>
+  </si>
+  <si>
+    <t>beta_BN</t>
+  </si>
+  <si>
+    <t>beta_Child</t>
+  </si>
+  <si>
+    <t>beta_Pregnant</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Rate of aging</t>
+  </si>
+  <si>
+    <t>mu_Tu</t>
+  </si>
+  <si>
+    <t>mu_Tc</t>
+  </si>
+  <si>
+    <t>Rate of death from complicated infection treatment</t>
+  </si>
+  <si>
+    <t>Rate of death from uncomplicated infection treatment</t>
+  </si>
+  <si>
+    <t>betaV3</t>
+  </si>
+  <si>
+    <t>betaV4</t>
+  </si>
+  <si>
+    <t>Reduction in infection due to V3</t>
+  </si>
+  <si>
+    <t>Reduction in infection due to V4</t>
+  </si>
+  <si>
+    <t>reduction in infection after V4</t>
+  </si>
+  <si>
+    <t>betaVstar</t>
   </si>
   <si>
     <t>r</t>
   </si>
   <si>
-    <t>phi</t>
-  </si>
-  <si>
-    <t>theta</t>
-  </si>
-  <si>
-    <t>rho</t>
-  </si>
-  <si>
-    <t>pTD</t>
-  </si>
-  <si>
-    <t>average Birth Rate</t>
-  </si>
-  <si>
-    <t>Rate of Loss of Immunity for Babies</t>
-  </si>
-  <si>
-    <t>Natural Death Rate</t>
-  </si>
-  <si>
-    <t>Proportion of Being Asymptomatic with Vivax</t>
-  </si>
-  <si>
-    <t>Rate of being infected with Vivax</t>
-  </si>
-  <si>
-    <t>Proportion of False Negatives for RDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proportion of False Negative for Microscopy </t>
-  </si>
-  <si>
-    <t>Proportion of True Positive for RDT</t>
-  </si>
-  <si>
-    <t>Proportion of True Positive for Microscopy</t>
-  </si>
-  <si>
-    <t>Proportion of Tests being RDT</t>
-  </si>
-  <si>
-    <t>Force of Invection from Ev^D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate of Getting Treatement </t>
-  </si>
-  <si>
-    <t>Proportion that Complete the First Treatment</t>
-  </si>
-  <si>
-    <t>Rate of those Who Don’t Complete 1st Vivax Treatement Moving to Ev^D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate of Moving from Recovered to Susceptible </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of People who don't Complete 2nd Vivax Treatment </t>
-  </si>
-  <si>
-    <t>Development Rate of Plasmodium Vivax Parasites in Mosquito</t>
-  </si>
-  <si>
-    <t>Development Rate of Plasmodium Falciparum Parasites in Mosquito</t>
-  </si>
-  <si>
-    <t>Afar</t>
-  </si>
-  <si>
-    <t>Amhara</t>
-  </si>
-  <si>
-    <t>BenishangulGumuz</t>
-  </si>
-  <si>
-    <t>CentralEthiopia</t>
-  </si>
-  <si>
-    <t>Gambela</t>
-  </si>
-  <si>
-    <t>Harari</t>
-  </si>
-  <si>
-    <t>Oromia</t>
-  </si>
-  <si>
-    <t>Siama</t>
-  </si>
-  <si>
-    <t>Somali</t>
-  </si>
-  <si>
-    <t>SouthEthiopia</t>
-  </si>
-  <si>
-    <t>Southwest</t>
-  </si>
-  <si>
-    <t>Tigray</t>
-  </si>
-  <si>
-    <t>mu_ch_F</t>
-  </si>
-  <si>
-    <t>mu_wp_F</t>
-  </si>
-  <si>
-    <t>Additional Mortality Rate for Child with Falciparum</t>
-  </si>
-  <si>
-    <t>Additional Mortality Rate for Pregnant Woman with Falciparum</t>
-  </si>
-  <si>
-    <t>mu_wp_V</t>
-  </si>
-  <si>
-    <t>mu_ch_V</t>
-  </si>
-  <si>
-    <t>Additional Mortality Rate for Child with Vivax</t>
-  </si>
-  <si>
-    <t>Additional Mortality Rate for Pregnant Woman with Vivax</t>
-  </si>
-  <si>
-    <t>mu_F</t>
-  </si>
-  <si>
-    <t>mu_V</t>
-  </si>
-  <si>
-    <t>Additional Mortality Rate with Falciparum</t>
-  </si>
-  <si>
-    <t>Additional Mortality Rate with Vivax</t>
-  </si>
-  <si>
-    <t>mu_mos</t>
-  </si>
-  <si>
-    <t>b_mos</t>
-  </si>
-  <si>
-    <t>gamma_mos_V</t>
-  </si>
-  <si>
-    <t>gamma_mos_F</t>
-  </si>
-  <si>
-    <t>Natural Rate of Recovery from blood parasites for Vivax</t>
-  </si>
-  <si>
-    <t>Rate of Moving out of Treated</t>
-  </si>
-  <si>
-    <t>Rate of Moving out of getting second Treatment</t>
-  </si>
-  <si>
-    <t>delta_F</t>
-  </si>
-  <si>
-    <t>sigma_F</t>
-  </si>
-  <si>
-    <t>pA_F</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>rate of losing immunity after infection</t>
+  </si>
+  <si>
+    <t>tauU</t>
+  </si>
+  <si>
+    <t>tauC</t>
+  </si>
+  <si>
+    <t>Rate of losing symptoms for uncomplicated infection</t>
+  </si>
+  <si>
+    <t>Rate of losing symptoms for complicated infection</t>
   </si>
   <si>
     <t>pMal</t>
   </si>
   <si>
+    <t xml:space="preserve">Proportion of children becoming male </t>
+  </si>
+  <si>
     <t>pregnant</t>
   </si>
   <si>
-    <t>Proportion of Being Asymptomatic with Falciparum</t>
-  </si>
-  <si>
-    <t>Rate of being infected with Falciparum</t>
-  </si>
-  <si>
-    <t>Natural Rate of Recovery from blood parasites for Falciparum</t>
-  </si>
-  <si>
-    <t>Proportion being Male</t>
-  </si>
-  <si>
-    <t>Rate of becoming Pregnant</t>
-  </si>
-  <si>
-    <t>Rate of Aging</t>
-  </si>
-  <si>
-    <t>YearlyValue</t>
-  </si>
-  <si>
-    <t>pTP_RDT</t>
-  </si>
-  <si>
     <t>notPregnant</t>
   </si>
   <si>
-    <t>Rate of moving from pregnant to not pregnant</t>
-  </si>
-  <si>
-    <t>beta_BN</t>
-  </si>
-  <si>
-    <t>pBN</t>
-  </si>
-  <si>
-    <t>beta_Spray</t>
-  </si>
-  <si>
-    <t>beta_v_ch</t>
-  </si>
-  <si>
-    <t>beta_F_ch</t>
-  </si>
-  <si>
-    <t>beta_v_wp</t>
-  </si>
-  <si>
-    <t>beta_F_wp</t>
-  </si>
-  <si>
-    <t>Bite rate of mosquitos</t>
-  </si>
-  <si>
-    <t>beta_Mos</t>
-  </si>
-  <si>
-    <t>Reduction in infection of mosquitos due to bednets</t>
-  </si>
-  <si>
-    <t>Proportion of people using bed nets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase in vivax infectivity in children </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase in Falciparum infectivity in children </t>
-  </si>
-  <si>
-    <t>Increase in vivax infectivity for pregnant women</t>
-  </si>
-  <si>
-    <t>Increase in Falciparum infectivity for pregnant women</t>
-  </si>
-  <si>
-    <t>beta_Temp</t>
-  </si>
-  <si>
-    <t>beta_Rain</t>
-  </si>
-  <si>
-    <t>Reduction in birth rate of mosquitos due to spraying</t>
-  </si>
-  <si>
-    <t>Reduction in birth rate of mosquitos due to ITN</t>
-  </si>
-  <si>
-    <t>Change in birthrate of mosquitos due to rainfall</t>
-  </si>
-  <si>
-    <t>Change in birthrate of mosquitos due to temperature</t>
-  </si>
-  <si>
-    <t>beta_BN_b</t>
-  </si>
-  <si>
-    <t>avgTemp</t>
-  </si>
-  <si>
-    <t>avgRain</t>
+    <t>Rate of moving from not pregnant to pregnant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of moving from pregnant to not pregnant </t>
   </si>
 </sst>
 </file>
@@ -689,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,15 +761,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <f>D2/52</f>
-        <v>6.1153846153846154E-4</v>
-      </c>
-      <c r="D2">
-        <f>31.8/1000</f>
-        <v>3.1800000000000002E-2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,561 +769,360 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C33" si="0">D3/52</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>1.2494230769230771E-4</v>
-      </c>
-      <c r="D4">
-        <f>6.497/1000</f>
-        <v>6.4970000000000002E-3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <f>D5</f>
-        <v>0.8</v>
-      </c>
-      <c r="D5" s="2">
-        <f>0.8</f>
-        <v>0.8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2.6343519494204424E-4</v>
-      </c>
-      <c r="D6">
-        <f>5/365</f>
-        <v>1.3698630136986301E-2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <f>D7</f>
-        <v>0.03</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.03</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ref="C8:C11" si="1">D8</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>0.97</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>0.995</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.995</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.95</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>1.5806111696522654E-4</v>
-      </c>
-      <c r="D12">
-        <f>3/365</f>
-        <v>8.21917808219178E-3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>9.6153846153846159E-3</v>
-      </c>
-      <c r="D13" s="1">
-        <f>6/12</f>
-        <v>0.5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>7.3964497041420127E-4</v>
-      </c>
-      <c r="D14">
-        <f>2/52</f>
-        <v>3.8461538461538464E-2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2">
-        <f>D15</f>
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>1.5806111696522654E-4</v>
-      </c>
-      <c r="D16">
-        <f>3/365</f>
-        <v>8.21917808219178E-3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>3.6982248520710064E-4</v>
-      </c>
-      <c r="D17">
-        <f>1/52</f>
-        <v>1.9230769230769232E-2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>7.3964497041420127E-4</v>
-      </c>
-      <c r="D18">
-        <f>2/52</f>
-        <v>3.8461538461538464E-2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>1.4792899408284025E-3</v>
-      </c>
-      <c r="D19">
-        <f>4/52</f>
-        <v>7.6923076923076927E-2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2">
-        <f>D20</f>
-        <v>0.25</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1.8741346153846155E-4</v>
-      </c>
-      <c r="D21">
-        <f>D4*1.5</f>
-        <v>9.7455000000000007E-3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>1.4993076923076925E-4</v>
-      </c>
-      <c r="D22">
-        <f>D4*1.2</f>
-        <v>7.7964000000000002E-3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>1.8741346153846155E-4</v>
-      </c>
-      <c r="D23">
-        <f>D4*1.5</f>
-        <v>9.7455000000000007E-3</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>1.4993076923076925E-4</v>
-      </c>
-      <c r="D24">
-        <f>D4*1.2</f>
-        <v>7.7964000000000002E-3</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>1.3743653846153846E-4</v>
-      </c>
-      <c r="D25">
-        <f>D4*1.1</f>
-        <v>7.1467000000000006E-3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>1.3743653846153846E-4</v>
-      </c>
-      <c r="D26">
-        <f>D4*1.1</f>
-        <v>7.1467000000000006E-3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>2.5887573964497039E-3</v>
-      </c>
-      <c r="D27">
-        <f>7/52</f>
-        <v>0.13461538461538461</v>
-      </c>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>1.5384615384615385E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>1.9230769230769231E-4</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.01</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>3.205128205128205E-3</v>
-      </c>
-      <c r="D30" s="1">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="3">
-        <f>D31</f>
-        <v>0.505</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.505</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>1.8491124260355032E-4</v>
-      </c>
-      <c r="D32">
-        <f>1/104</f>
-        <v>9.6153846153846159E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>1.4423076923076924E-2</v>
-      </c>
-      <c r="D33" s="1">
-        <f>9/12</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
         <v>94</v>
       </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
         <v>95</v>
       </c>
-      <c r="C35">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>99</v>
-      </c>
-      <c r="C39">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>92</v>
       </c>
       <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="C40">
-        <v>1.4</v>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1316,45 +1146,45 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1395,7 +1225,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1436,7 +1266,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1477,7 +1307,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1518,7 +1348,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1559,7 +1389,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1600,7 +1430,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1641,7 +1471,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1682,7 +1512,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1723,7 +1553,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1764,7 +1594,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1805,7 +1635,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1864,15 +1694,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1883,7 +1713,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1894,7 +1724,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1905,7 +1735,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1916,7 +1746,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1927,7 +1757,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1938,7 +1768,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1949,7 +1779,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1960,7 +1790,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1971,7 +1801,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1982,7 +1812,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1993,7 +1823,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2009,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37C28B0-9E97-4C28-A8EA-4055C9F5F2DA}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,15 +1862,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <f>D2/52</f>
@@ -2052,13 +1882,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">D3/52</f>
+        <f t="shared" ref="C3:C4" si="0">D3/52</f>
         <v>7.3964497041420127E-4</v>
       </c>
       <c r="D3">
@@ -2068,10 +1898,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -2084,26 +1914,22 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2.6343519494204424E-4</v>
-      </c>
-      <c r="D5">
-        <f>5/365</f>
-        <v>1.3698630136986301E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <f>0</f>
@@ -2112,10 +1938,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <f>0</f>
@@ -2124,10 +1950,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <f>0</f>
@@ -2136,26 +1962,14 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10">
-        <f>Humans!C34</f>
-        <v>5</v>
+        <f>Humans!C28</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
